--- a/Leetcode_Excel.xlsx
+++ b/Leetcode_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul\Desktop\DSA_progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8D0A0-4760-4F71-9F8C-6460F5F99EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815CDDE-4DBA-4EDC-AA81-E10FAD744279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{C8F00481-0105-4DA8-9B10-0DB6916D57E7}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C8F00481-0105-4DA8-9B10-0DB6916D57E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Spaced Repetion" sheetId="1" r:id="rId1"/>
@@ -34,28 +34,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Problem Solved</t>
   </si>
   <si>
-    <t>1st Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 days </t>
-  </si>
-  <si>
-    <t>One Week</t>
+    <t xml:space="preserve">Reverse Linked List </t>
+  </si>
+  <si>
+    <t>Merge Sorted Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reorder List </t>
+  </si>
+  <si>
+    <t>Remove Nth Node from the end of the list</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>1st time</t>
+  </si>
+  <si>
+    <t>2nd time</t>
+  </si>
+  <si>
+    <t>3rd time</t>
+  </si>
+  <si>
+    <t>Session 4</t>
+  </si>
+  <si>
+    <t>Session 10</t>
+  </si>
+  <si>
+    <t>Session 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Whitney Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Whitney Bold"/>
       <family val="2"/>
     </font>
@@ -396,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386E3A6C-DE7B-4FAB-ABB7-9E117BFE2BD2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.35"/>
@@ -412,16 +441,87 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>